--- a/src/je/panse/doro/aeternum/dataxlsx/Plan9list.xlsx
+++ b/src/je/panse/doro/aeternum/dataxlsx/Plan9list.xlsx
@@ -22,12 +22,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">...Observation and Follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Follow-up without medication</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">---------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Observation and Follow-up without medication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…</t>
   </si>
   <si>
     <t xml:space="preserve">...Lab F/U...</t>
@@ -39,25 +42,25 @@
     <t xml:space="preserve">    TFT , Auto-antibodies F/U</t>
   </si>
   <si>
-    <t xml:space="preserve">    TFT  F/U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    DEXA    EKG    CPA </t>
+    <t xml:space="preserve">    TFT  F/U  TUS F/U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DEXA    EKG    CPA   US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...next  공단검진...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...next 지디스 검진…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...GFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...CFS</t>
   </si>
   <si>
     <t xml:space="preserve">.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...next  공단검진...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...next 지디스 검진…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...GFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...CFS</t>
   </si>
   <si>
     <t xml:space="preserve">...USG</t>
@@ -76,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -106,12 +109,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK KR"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -161,7 +158,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -175,10 +172,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -207,18 +200,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.18359375" defaultRowHeight="26.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.1015625" defaultRowHeight="26.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="149.95"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -232,71 +225,79 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -305,23 +306,28 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5"/>
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -345,7 +351,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.85546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="33.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
@@ -355,13 +361,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -392,13 +398,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6"/>
+      <c r="A1" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/je/panse/doro/aeternum/dataxlsx/Plan9list.xlsx
+++ b/src/je/panse/doro/aeternum/dataxlsx/Plan9list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">...Observation and Follow-up</t>
   </si>
@@ -76,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -106,12 +106,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK KR"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -161,7 +155,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -175,10 +169,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -210,10 +200,10 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.18359375" defaultRowHeight="26.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.1015625" defaultRowHeight="26.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="149.95"/>
   </cols>
@@ -250,78 +240,80 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
+      <c r="A9" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="16" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+    <row r="17" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5"/>
-    </row>
     <row r="18" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5"/>
+      <c r="A19" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -345,7 +337,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.85546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="33.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
@@ -355,13 +347,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -392,13 +384,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6"/>
+      <c r="A1" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/je/panse/doro/aeternum/dataxlsx/Plan9list.xlsx
+++ b/src/je/panse/doro/aeternum/dataxlsx/Plan9list.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
-    <t xml:space="preserve">---------------------------------------------</t>
+    <t xml:space="preserve">.</t>
   </si>
   <si>
     <t xml:space="preserve">...Observation and Follow-up without medication</t>
@@ -33,19 +33,22 @@
     <t xml:space="preserve">…</t>
   </si>
   <si>
-    <t xml:space="preserve">...Lab F/U...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    DM Lab  :  Lp(a), ApoB, +A/C, Alab F/U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TFT , Auto-antibodies F/U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TFT  F/U  TUS F/U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    DEXA    EKG    CPA   US</t>
+    <t xml:space="preserve">&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;...Lab F/U...&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM Lab  :  Lp(a), ApoB, +A/C, Alab F/U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFT , Auto-antibodies F/U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFT  F/U  TUS F/U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEXA    EKG    CPA   US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;fin&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">...next  공단검진...</t>
@@ -58,9 +61,6 @@
   </si>
   <si>
     <t xml:space="preserve">...CFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.</t>
   </si>
   <si>
     <t xml:space="preserve">...USG</t>
@@ -79,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -101,13 +101,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -158,16 +151,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -203,10 +192,10 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.1015625" defaultRowHeight="26.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="45.9765625" defaultRowHeight="26.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="149.95"/>
   </cols>
@@ -238,75 +227,75 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="15" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -316,18 +305,18 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -351,7 +340,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="33.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
@@ -361,13 +350,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -398,13 +387,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5"/>
+      <c r="A1" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
